--- a/biology/Zoologie/Asterropteryx/Asterropteryx.xlsx
+++ b/biology/Zoologie/Asterropteryx/Asterropteryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterropteryx est un genre de poissons regroupant 6 des nombreuses espèces de gobies.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 déc. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 déc. 2015) :
 Asterropteryx atripes Shibukawa &amp; Suzuki, 2002
 Asterropteryx bipunctata Allen &amp; Munday, 1995
 Asterropteryx ensifera Bleeker, 1874
@@ -522,7 +536,7 @@
 Asterropteryx senoui Shibukawa &amp; Suzuki, 2007
 Asterropteryx spinosa Goren, 1981
 Asterropteryx striata Allen &amp; Munday, 1995
-Selon ITIS      (17 déc. 2015)[2] :
+Selon ITIS      (17 déc. 2015) :
 Asterropteryx atripes Shibukawa &amp; Suzuki, 2002
 Asterropteryx bipunctata Allen &amp; Munday, 1995
 Asterropteryx ensifera (Bleeker, 1874)
